--- a/sheet2.xlsx
+++ b/sheet2.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -54,7 +54,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,3337 +335,3271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:C296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>44274.385416666664</v>
+        <v>44293.385416666664</v>
       </c>
       <c r="B1">
-        <v>33615.6015625</v>
+        <v>2000.5</v>
       </c>
       <c r="C1">
-        <v>150</v>
+        <v>105643</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44274.385428240741</v>
+        <v>44293.385428240741</v>
       </c>
       <c r="B2">
-        <v>33688.80078125</v>
+        <v>2001.5999755859375</v>
       </c>
       <c r="C2">
-        <v>2325</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44274.385428240741</v>
+        <v>44293.385439814818</v>
       </c>
       <c r="B3">
-        <v>33600.1015625</v>
+        <v>2004</v>
       </c>
       <c r="C3">
-        <v>2325</v>
+        <v>11419</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44274.385428240741</v>
+        <v>44293.385451388887</v>
       </c>
       <c r="B4">
-        <v>33640</v>
+        <v>2001.75</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44274.385439814818</v>
+        <v>44293.385462962964</v>
       </c>
       <c r="B5">
-        <v>33628.30078125</v>
+        <v>2002</v>
       </c>
       <c r="C5">
-        <v>1575</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44274.385451388887</v>
+        <v>44293.385474537034</v>
       </c>
       <c r="B6">
-        <v>33587</v>
+        <v>2002.199951171875</v>
       </c>
       <c r="C6">
-        <v>3075</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44274.385462962964</v>
+        <v>44293.38548611111</v>
       </c>
       <c r="B7">
-        <v>33566.25</v>
+        <v>2001.25</v>
       </c>
       <c r="C7">
-        <v>3725</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44274.385474537034</v>
+        <v>44293.385497685187</v>
       </c>
       <c r="B8">
-        <v>33547.6015625</v>
+        <v>2001.4000244140625</v>
       </c>
       <c r="C8">
-        <v>2450</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44274.38548611111</v>
+        <v>44293.385509259257</v>
       </c>
       <c r="B9">
-        <v>33539.1484375</v>
+        <v>2001.25</v>
       </c>
       <c r="C9">
-        <v>3950</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44274.385497685187</v>
+        <v>44293.385520833333</v>
       </c>
       <c r="B10">
-        <v>33521.05078125</v>
+        <v>2001.25</v>
       </c>
       <c r="C10">
-        <v>2400</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44274.385509259257</v>
+        <v>44293.38553240741</v>
       </c>
       <c r="B11">
-        <v>33530.05078125</v>
+        <v>1998.1500244140625</v>
       </c>
       <c r="C11">
-        <v>1375</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44274.385520833333</v>
+        <v>44293.38554398148</v>
       </c>
       <c r="B12">
-        <v>33539.80078125</v>
+        <v>1998.0999755859375</v>
       </c>
       <c r="C12">
-        <v>2450</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44274.38553240741</v>
+        <v>44293.385555555556</v>
       </c>
       <c r="B13">
-        <v>33527</v>
+        <v>1995</v>
       </c>
       <c r="C13">
-        <v>1975</v>
+        <v>8493</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44274.38554398148</v>
+        <v>44293.385567129626</v>
       </c>
       <c r="B14">
-        <v>33542</v>
+        <v>1993.4000244140625</v>
       </c>
       <c r="C14">
-        <v>1225</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44274.385555555556</v>
+        <v>44293.385578703703</v>
       </c>
       <c r="B15">
-        <v>33561.75</v>
+        <v>1995.9000244140625</v>
       </c>
       <c r="C15">
-        <v>2375</v>
+        <v>8481</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44274.385567129626</v>
+        <v>44293.38559027778</v>
       </c>
       <c r="B16">
-        <v>33572</v>
+        <v>1995.550048828125</v>
       </c>
       <c r="C16">
-        <v>2075</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44274.385578703703</v>
+        <v>44293.385613425926</v>
       </c>
       <c r="B17">
-        <v>33560.69921875</v>
+        <v>1995.0999755859375</v>
       </c>
       <c r="C17">
-        <v>800</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44274.38559027778</v>
+        <v>44293.385613425926</v>
       </c>
       <c r="B18">
-        <v>33559.75</v>
+        <v>1993.800048828125</v>
       </c>
       <c r="C18">
-        <v>2150</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44274.385601851849</v>
+        <v>44293.385625000003</v>
       </c>
       <c r="B19">
-        <v>33569</v>
+        <v>1993.300048828125</v>
       </c>
       <c r="C19">
-        <v>625</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44274.385613425926</v>
+        <v>44293.385636574072</v>
       </c>
       <c r="B20">
-        <v>33564.30078125</v>
+        <v>1998.5</v>
       </c>
       <c r="C20">
-        <v>1575</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44274.385625000003</v>
+        <v>44293.385648148149</v>
       </c>
       <c r="B21">
-        <v>33577.1484375</v>
+        <v>1998.800048828125</v>
       </c>
       <c r="C21">
-        <v>2600</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44274.385636574072</v>
+        <v>44293.385659722226</v>
       </c>
       <c r="B22">
-        <v>33580.44921875</v>
+        <v>1999.300048828125</v>
       </c>
       <c r="C22">
-        <v>1800</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44274.385648148149</v>
+        <v>44293.385671296295</v>
       </c>
       <c r="B23">
-        <v>33575.44921875</v>
+        <v>1999.4000244140625</v>
       </c>
       <c r="C23">
-        <v>2600</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44274.385659722226</v>
+        <v>44293.385682870372</v>
       </c>
       <c r="B24">
-        <v>33574.55078125</v>
+        <v>1999.300048828125</v>
       </c>
       <c r="C24">
-        <v>1300</v>
+        <v>11106</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44274.385671296295</v>
+        <v>44293.385694444441</v>
       </c>
       <c r="B25">
-        <v>33588.1484375</v>
+        <v>1998.949951171875</v>
       </c>
       <c r="C25">
-        <v>1125</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44274.385682870372</v>
+        <v>44293.385706018518</v>
       </c>
       <c r="B26">
-        <v>33601.94921875</v>
+        <v>1997.800048828125</v>
       </c>
       <c r="C26">
-        <v>3050</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44274.385694444441</v>
+        <v>44293.385717592595</v>
       </c>
       <c r="B27">
-        <v>33609.69921875</v>
+        <v>1997.800048828125</v>
       </c>
       <c r="C27">
-        <v>700</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44274.385706018518</v>
+        <v>44293.385729166665</v>
       </c>
       <c r="B28">
-        <v>33615.94921875</v>
+        <v>1998.9000244140625</v>
       </c>
       <c r="C28">
-        <v>1800</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44274.385717592595</v>
+        <v>44293.385740740741</v>
       </c>
       <c r="B29">
-        <v>33616</v>
+        <v>1999.300048828125</v>
       </c>
       <c r="C29">
-        <v>1250</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44274.385729166665</v>
+        <v>44293.385752314818</v>
       </c>
       <c r="B30">
-        <v>33618</v>
+        <v>1999.1500244140625</v>
       </c>
       <c r="C30">
-        <v>875</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44274.385740740741</v>
+        <v>44293.385763888888</v>
       </c>
       <c r="B31">
-        <v>33634.3515625</v>
+        <v>1998.5999755859375</v>
       </c>
       <c r="C31">
-        <v>1000</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44274.385752314818</v>
+        <v>44293.385775462964</v>
       </c>
       <c r="B32">
-        <v>33646.3515625</v>
+        <v>2000.949951171875</v>
       </c>
       <c r="C32">
-        <v>925</v>
+        <v>14313</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44274.385763888888</v>
+        <v>44293.385787037034</v>
       </c>
       <c r="B33">
-        <v>33657.25</v>
+        <v>1999.449951171875</v>
       </c>
       <c r="C33">
-        <v>950</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44274.385775462964</v>
+        <v>44293.385810185187</v>
       </c>
       <c r="B34">
-        <v>33662</v>
+        <v>1999.449951171875</v>
       </c>
       <c r="C34">
-        <v>1050</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44274.385787037034</v>
+        <v>44293.385810185187</v>
       </c>
       <c r="B35">
-        <v>33665.3984375</v>
+        <v>1999.5</v>
       </c>
       <c r="C35">
-        <v>1025</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44274.385798611111</v>
+        <v>44293.385821759257</v>
       </c>
       <c r="B36">
-        <v>33696.1015625</v>
+        <v>1999.5</v>
       </c>
       <c r="C36">
-        <v>2775</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44274.385810185187</v>
+        <v>44293.385833333334</v>
       </c>
       <c r="B37">
-        <v>33696.94921875</v>
+        <v>2000</v>
       </c>
       <c r="C37">
-        <v>1075</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44274.385821759257</v>
+        <v>44293.385844907411</v>
       </c>
       <c r="B38">
-        <v>33699</v>
+        <v>2000</v>
       </c>
       <c r="C38">
-        <v>325</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44274.385833333334</v>
+        <v>44293.38585648148</v>
       </c>
       <c r="B39">
-        <v>33699.8984375</v>
+        <v>2000.199951171875</v>
       </c>
       <c r="C39">
-        <v>550</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44274.385844907411</v>
+        <v>44293.385868055557</v>
       </c>
       <c r="B40">
-        <v>33685.25</v>
+        <v>2000</v>
       </c>
       <c r="C40">
-        <v>800</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44274.38585648148</v>
+        <v>44293.385879629626</v>
       </c>
       <c r="B41">
-        <v>33683</v>
+        <v>2000.050048828125</v>
       </c>
       <c r="C41">
-        <v>1850</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44274.385868055557</v>
+        <v>44293.385891203703</v>
       </c>
       <c r="B42">
-        <v>33676.6484375</v>
+        <v>1999.699951171875</v>
       </c>
       <c r="C42">
-        <v>3925</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44274.385879629626</v>
+        <v>44293.38590277778</v>
       </c>
       <c r="B43">
-        <v>33675.75</v>
+        <v>1999.0999755859375</v>
       </c>
       <c r="C43">
-        <v>1950</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44274.385891203703</v>
+        <v>44293.385914351849</v>
       </c>
       <c r="B44">
-        <v>33663.8984375</v>
+        <v>1997.8499755859375</v>
       </c>
       <c r="C44">
-        <v>1200</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44274.38590277778</v>
+        <v>44293.385925925926</v>
       </c>
       <c r="B45">
-        <v>33655.3515625</v>
+        <v>1997.6500244140625</v>
       </c>
       <c r="C45">
-        <v>1475</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44274.385914351849</v>
+        <v>44293.385949074072</v>
       </c>
       <c r="B46">
-        <v>33670</v>
+        <v>1998.5</v>
       </c>
       <c r="C46">
-        <v>1000</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44274.385925925926</v>
+        <v>44293.385949074072</v>
       </c>
       <c r="B47">
-        <v>33672.5</v>
+        <v>1998.5</v>
       </c>
       <c r="C47">
-        <v>250</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44274.385937500003</v>
+        <v>44293.385960648149</v>
       </c>
       <c r="B48">
-        <v>33660.05078125</v>
+        <v>1998.5</v>
       </c>
       <c r="C48">
-        <v>1500</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44274.385949074072</v>
+        <v>44293.385972222219</v>
       </c>
       <c r="B49">
-        <v>33676.6484375</v>
+        <v>1998.75</v>
       </c>
       <c r="C49">
-        <v>1175</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44274.385960648149</v>
+        <v>44293.385983796295</v>
       </c>
       <c r="B50">
-        <v>33671.94921875</v>
+        <v>1998.949951171875</v>
       </c>
       <c r="C50">
-        <v>2075</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44274.385972222219</v>
+        <v>44293.385995370372</v>
       </c>
       <c r="B51">
-        <v>33665</v>
+        <v>1998.949951171875</v>
       </c>
       <c r="C51">
-        <v>575</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44274.385983796295</v>
+        <v>44293.386006944442</v>
       </c>
       <c r="B52">
-        <v>33666.8515625</v>
+        <v>1998.75</v>
       </c>
       <c r="C52">
-        <v>900</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44274.385995370372</v>
+        <v>44293.386030092595</v>
       </c>
       <c r="B53">
-        <v>33656.55078125</v>
+        <v>1998.800048828125</v>
       </c>
       <c r="C53">
-        <v>1950</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44274.386006944442</v>
+        <v>44293.386030092595</v>
       </c>
       <c r="B54">
-        <v>33650.25</v>
+        <v>1998.9000244140625</v>
       </c>
       <c r="C54">
-        <v>625</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44274.386018518519</v>
+        <v>44293.386041666665</v>
       </c>
       <c r="B55">
-        <v>33664.30078125</v>
+        <v>1999.300048828125</v>
       </c>
       <c r="C55">
-        <v>2375</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44274.386030092595</v>
+        <v>44293.386053240742</v>
       </c>
       <c r="B56">
-        <v>33655.05078125</v>
+        <v>1999.800048828125</v>
       </c>
       <c r="C56">
-        <v>2075</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44274.386041666665</v>
+        <v>44293.386064814818</v>
       </c>
       <c r="B57">
-        <v>33665.1015625</v>
+        <v>1999.5999755859375</v>
       </c>
       <c r="C57">
-        <v>600</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44274.386053240742</v>
+        <v>44293.386087962965</v>
       </c>
       <c r="B58">
-        <v>33657.05078125</v>
+        <v>1999.699951171875</v>
       </c>
       <c r="C58">
-        <v>825</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44274.386064814818</v>
+        <v>44293.386087962965</v>
       </c>
       <c r="B59">
-        <v>33669.55078125</v>
+        <v>1999.8499755859375</v>
       </c>
       <c r="C59">
-        <v>1175</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>44274.386076388888</v>
+        <v>44293.386099537034</v>
       </c>
       <c r="B60">
-        <v>33667.8984375</v>
+        <v>1999.8499755859375</v>
       </c>
       <c r="C60">
-        <v>200</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44274.386087962965</v>
+        <v>44293.386111111111</v>
       </c>
       <c r="B61">
-        <v>33665.1015625</v>
+        <v>2000.199951171875</v>
       </c>
       <c r="C61">
-        <v>600</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44274.386099537034</v>
+        <v>44293.386122685188</v>
       </c>
       <c r="B62">
-        <v>33657.05078125</v>
+        <v>2000.949951171875</v>
       </c>
       <c r="C62">
-        <v>625</v>
+        <v>556</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44274.386111111111</v>
+        <v>44293.386145833334</v>
       </c>
       <c r="B63">
-        <v>33659</v>
+        <v>2000.9000244140625</v>
       </c>
       <c r="C63">
-        <v>350</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44274.386122685188</v>
+        <v>44293.386145833334</v>
       </c>
       <c r="B64">
-        <v>33651.30078125</v>
+        <v>2000.9000244140625</v>
       </c>
       <c r="C64">
-        <v>1750</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44274.386134259257</v>
+        <v>44293.386157407411</v>
       </c>
       <c r="B65">
-        <v>33650.05078125</v>
+        <v>2000.25</v>
       </c>
       <c r="C65">
-        <v>575</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>44274.386145833334</v>
+        <v>44293.38616898148</v>
       </c>
       <c r="B66">
-        <v>33662.80078125</v>
+        <v>2000.4000244140625</v>
       </c>
       <c r="C66">
-        <v>1950</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>44274.386157407411</v>
+        <v>44293.386180555557</v>
       </c>
       <c r="B67">
-        <v>33660.3515625</v>
+        <v>2001.050048828125</v>
       </c>
       <c r="C67">
-        <v>775</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44274.38616898148</v>
+        <v>44293.386192129627</v>
       </c>
       <c r="B68">
-        <v>33670</v>
+        <v>2000.3499755859375</v>
       </c>
       <c r="C68">
-        <v>725</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44274.386180555557</v>
+        <v>44293.38621527778</v>
       </c>
       <c r="B69">
-        <v>33668.1015625</v>
+        <v>2001</v>
       </c>
       <c r="C69">
-        <v>1850</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44274.386192129627</v>
+        <v>44293.38622685185</v>
       </c>
       <c r="B70">
-        <v>33677.94921875</v>
+        <v>2000.3499755859375</v>
       </c>
       <c r="C70">
-        <v>2325</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44274.386203703703</v>
+        <v>44293.386238425926</v>
       </c>
       <c r="B71">
-        <v>33685</v>
+        <v>2000.050048828125</v>
       </c>
       <c r="C71">
-        <v>725</v>
+        <v>19474</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44274.38621527778</v>
+        <v>44293.386250000003</v>
       </c>
       <c r="B72">
-        <v>33687.1015625</v>
+        <v>2000.300048828125</v>
       </c>
       <c r="C72">
-        <v>1650</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>44274.38622685185</v>
+        <v>44293.386273148149</v>
       </c>
       <c r="B73">
-        <v>33695.75</v>
+        <v>1999.699951171875</v>
       </c>
       <c r="C73">
-        <v>725</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>44274.386238425926</v>
+        <v>44293.386284722219</v>
       </c>
       <c r="B74">
-        <v>33704.94921875</v>
+        <v>1999.449951171875</v>
       </c>
       <c r="C74">
-        <v>1300</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>44274.386250000003</v>
+        <v>44293.386284722219</v>
       </c>
       <c r="B75">
-        <v>33713.30078125</v>
+        <v>2000.300048828125</v>
       </c>
       <c r="C75">
-        <v>875</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>44274.386261574073</v>
+        <v>44293.386296296296</v>
       </c>
       <c r="B76">
-        <v>33714.8984375</v>
+        <v>2000</v>
       </c>
       <c r="C76">
-        <v>675</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44274.386273148149</v>
+        <v>44293.386307870373</v>
       </c>
       <c r="B77">
-        <v>33727.94921875</v>
+        <v>2000</v>
       </c>
       <c r="C77">
-        <v>1200</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44274.386284722219</v>
+        <v>44293.386319444442</v>
       </c>
       <c r="B78">
-        <v>33722</v>
+        <v>2000</v>
       </c>
       <c r="C78">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44274.386296296296</v>
+        <v>44293.386331018519</v>
       </c>
       <c r="B79">
-        <v>33727.3984375</v>
+        <v>2000.4000244140625</v>
       </c>
       <c r="C79">
-        <v>1025</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44274.386307870373</v>
+        <v>44293.386354166665</v>
       </c>
       <c r="B80">
-        <v>33737.75</v>
+        <v>2000.550048828125</v>
       </c>
       <c r="C80">
-        <v>1225</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>44274.386319444442</v>
+        <v>44293.386354166665</v>
       </c>
       <c r="B81">
-        <v>33730</v>
+        <v>2000.550048828125</v>
       </c>
       <c r="C81">
-        <v>1425</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>44274.386331018519</v>
+        <v>44293.386365740742</v>
       </c>
       <c r="B82">
-        <v>33742.6015625</v>
+        <v>2000</v>
       </c>
       <c r="C82">
-        <v>800</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44274.386342592596</v>
+        <v>44293.386377314811</v>
       </c>
       <c r="B83">
-        <v>33743</v>
+        <v>2000.550048828125</v>
       </c>
       <c r="C83">
-        <v>675</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44274.386354166665</v>
+        <v>44293.386388888888</v>
       </c>
       <c r="B84">
-        <v>33743.8984375</v>
+        <v>2000.0999755859375</v>
       </c>
       <c r="C84">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44274.386365740742</v>
+        <v>44293.386412037034</v>
       </c>
       <c r="B85">
-        <v>33746.69921875</v>
+        <v>2000.0999755859375</v>
       </c>
       <c r="C85">
-        <v>225</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44274.386377314811</v>
+        <v>44293.386423611111</v>
       </c>
       <c r="B86">
-        <v>33747.55078125</v>
+        <v>2000.0999755859375</v>
       </c>
       <c r="C86">
-        <v>900</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44274.386388888888</v>
+        <v>44293.386423611111</v>
       </c>
       <c r="B87">
-        <v>33747.75</v>
+        <v>2000.0999755859375</v>
       </c>
       <c r="C87">
-        <v>1350</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44274.386400462965</v>
+        <v>44293.386435185188</v>
       </c>
       <c r="B88">
-        <v>33750</v>
+        <v>2000.25</v>
       </c>
       <c r="C88">
-        <v>975</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>44274.386412037034</v>
+        <v>44293.386446759258</v>
       </c>
       <c r="B89">
-        <v>33740</v>
+        <v>2000.4000244140625</v>
       </c>
       <c r="C89">
-        <v>400</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44274.386423611111</v>
+        <v>44293.386458333334</v>
       </c>
       <c r="B90">
-        <v>33738.1484375</v>
+        <v>2000.800048828125</v>
       </c>
       <c r="C90">
-        <v>1800</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44274.386435185188</v>
+        <v>44293.386469907404</v>
       </c>
       <c r="B91">
-        <v>33739.94921875</v>
+        <v>2000.699951171875</v>
       </c>
       <c r="C91">
-        <v>875</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44274.386446759258</v>
+        <v>44293.386481481481</v>
       </c>
       <c r="B92">
-        <v>33731</v>
+        <v>2000.8499755859375</v>
       </c>
       <c r="C92">
-        <v>825</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44274.386469907404</v>
+        <v>44293.386493055557</v>
       </c>
       <c r="B93">
-        <v>33727.30078125</v>
+        <v>2000.4000244140625</v>
       </c>
       <c r="C93">
-        <v>700</v>
+        <v>610</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44274.386469907404</v>
+        <v>44293.386516203704</v>
       </c>
       <c r="B94">
-        <v>33727</v>
+        <v>2001</v>
       </c>
       <c r="C94">
-        <v>225</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>44274.386481481481</v>
+        <v>44293.386516203704</v>
       </c>
       <c r="B95">
-        <v>33727</v>
+        <v>2000.699951171875</v>
       </c>
       <c r="C95">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>44274.386493055557</v>
+        <v>44293.38652777778</v>
       </c>
       <c r="B96">
-        <v>33728</v>
+        <v>2001</v>
       </c>
       <c r="C96">
-        <v>475</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>44274.386504629627</v>
+        <v>44293.38653935185</v>
       </c>
       <c r="B97">
-        <v>33727</v>
+        <v>1999.75</v>
       </c>
       <c r="C97">
-        <v>650</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44274.386516203704</v>
+        <v>44293.386550925927</v>
       </c>
       <c r="B98">
-        <v>33721.8515625</v>
+        <v>1999.699951171875</v>
       </c>
       <c r="C98">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44274.38652777778</v>
+        <v>44293.386574074073</v>
       </c>
       <c r="B99">
-        <v>33740</v>
+        <v>1999.9000244140625</v>
       </c>
       <c r="C99">
-        <v>825</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44274.38653935185</v>
+        <v>44293.38658564815</v>
       </c>
       <c r="B100">
-        <v>33733.44921875</v>
+        <v>1997.5</v>
       </c>
       <c r="C100">
-        <v>100</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44274.386550925927</v>
+        <v>44293.38658564815</v>
       </c>
       <c r="B101">
-        <v>33734</v>
+        <v>1998.050048828125</v>
       </c>
       <c r="C101">
-        <v>175</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44274.386562500003</v>
+        <v>44293.386597222219</v>
       </c>
       <c r="B102">
-        <v>33727.1484375</v>
+        <v>1998.199951171875</v>
       </c>
       <c r="C102">
-        <v>900</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44274.38658564815</v>
+        <v>44293.386608796296</v>
       </c>
       <c r="B103">
-        <v>33721.8515625</v>
+        <v>1998.199951171875</v>
       </c>
       <c r="C103">
-        <v>675</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>44274.38658564815</v>
+        <v>44293.386620370373</v>
       </c>
       <c r="B104">
-        <v>33731.30078125</v>
+        <v>1998.550048828125</v>
       </c>
       <c r="C104">
-        <v>375</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44274.386597222219</v>
+        <v>44293.386643518519</v>
       </c>
       <c r="B105">
-        <v>33724.3515625</v>
+        <v>1997.949951171875</v>
       </c>
       <c r="C105">
-        <v>300</v>
+        <v>785</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44274.386608796296</v>
+        <v>44293.386643518519</v>
       </c>
       <c r="B106">
-        <v>33723.5</v>
+        <v>1998.199951171875</v>
       </c>
       <c r="C106">
-        <v>625</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44274.386620370373</v>
+        <v>44293.386655092596</v>
       </c>
       <c r="B107">
-        <v>33720.19921875</v>
+        <v>1998.5</v>
       </c>
       <c r="C107">
-        <v>900</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>44274.386631944442</v>
+        <v>44293.386666666665</v>
       </c>
       <c r="B108">
-        <v>33715</v>
+        <v>1998</v>
       </c>
       <c r="C108">
-        <v>1300</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>44274.386643518519</v>
+        <v>44293.386678240742</v>
       </c>
       <c r="B109">
-        <v>33716.1484375</v>
+        <v>1998</v>
       </c>
       <c r="C109">
-        <v>700</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>44274.386655092596</v>
+        <v>44293.386689814812</v>
       </c>
       <c r="B110">
-        <v>33706.80078125</v>
+        <v>1998.5999755859375</v>
       </c>
       <c r="C110">
-        <v>1400</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>44274.386666666665</v>
+        <v>44293.386712962965</v>
       </c>
       <c r="B111">
-        <v>33692.1015625</v>
+        <v>1998.550048828125</v>
       </c>
       <c r="C111">
-        <v>1825</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>44274.386678240742</v>
+        <v>44293.386712962965</v>
       </c>
       <c r="B112">
-        <v>33688</v>
+        <v>1998.199951171875</v>
       </c>
       <c r="C112">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>44274.386701388888</v>
+        <v>44293.386724537035</v>
       </c>
       <c r="B113">
-        <v>33692.44921875</v>
+        <v>1998.199951171875</v>
       </c>
       <c r="C113">
-        <v>600</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>44274.386701388888</v>
+        <v>44293.386736111112</v>
       </c>
       <c r="B114">
-        <v>33694.25</v>
+        <v>1998.5</v>
       </c>
       <c r="C114">
-        <v>175</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44274.386712962965</v>
+        <v>44293.386747685188</v>
       </c>
       <c r="B115">
-        <v>33685.8515625</v>
+        <v>1998.5999755859375</v>
       </c>
       <c r="C115">
-        <v>275</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44274.386724537035</v>
+        <v>44293.386759259258</v>
       </c>
       <c r="B116">
-        <v>33684</v>
+        <v>1998.5999755859375</v>
       </c>
       <c r="C116">
-        <v>650</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44274.386736111112</v>
+        <v>44293.386770833335</v>
       </c>
       <c r="B117">
-        <v>33706.69921875</v>
+        <v>1998.800048828125</v>
       </c>
       <c r="C117">
-        <v>900</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44274.386747685188</v>
+        <v>44293.386782407404</v>
       </c>
       <c r="B118">
-        <v>33701</v>
+        <v>1998.550048828125</v>
       </c>
       <c r="C118">
-        <v>150</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44274.386759259258</v>
+        <v>44293.386805555558</v>
       </c>
       <c r="B119">
-        <v>33701.25</v>
+        <v>1999.199951171875</v>
       </c>
       <c r="C119">
-        <v>300</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44274.386770833335</v>
+        <v>44293.386805555558</v>
       </c>
       <c r="B120">
-        <v>33694.05078125</v>
+        <v>1999.199951171875</v>
       </c>
       <c r="C120">
-        <v>2900</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44274.386782407404</v>
+        <v>44293.386817129627</v>
       </c>
       <c r="B121">
-        <v>33700.75</v>
+        <v>1998.800048828125</v>
       </c>
       <c r="C121">
-        <v>300</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44274.386805555558</v>
+        <v>44293.386828703704</v>
       </c>
       <c r="B122">
-        <v>33700</v>
+        <v>1998.800048828125</v>
       </c>
       <c r="C122">
-        <v>2850</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44274.386805555558</v>
+        <v>44293.386840277781</v>
       </c>
       <c r="B123">
-        <v>33700</v>
+        <v>1999.199951171875</v>
       </c>
       <c r="C123">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44274.386817129627</v>
+        <v>44293.386863425927</v>
       </c>
       <c r="B124">
-        <v>33689.25</v>
+        <v>1998.9000244140625</v>
       </c>
       <c r="C124">
-        <v>800</v>
+        <v>643</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44274.386828703704</v>
+        <v>44293.386863425927</v>
       </c>
       <c r="B125">
-        <v>33685.8515625</v>
+        <v>1998.8499755859375</v>
       </c>
       <c r="C125">
-        <v>350</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>44274.386840277781</v>
+        <v>44293.386874999997</v>
       </c>
       <c r="B126">
-        <v>33673.44921875</v>
+        <v>1998.8499755859375</v>
       </c>
       <c r="C126">
-        <v>1075</v>
+        <v>534</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44274.38685185185</v>
+        <v>44293.386886574073</v>
       </c>
       <c r="B127">
-        <v>33670.19921875</v>
+        <v>1999</v>
       </c>
       <c r="C127">
-        <v>475</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44274.386863425927</v>
+        <v>44293.38689814815</v>
       </c>
       <c r="B128">
-        <v>33660.8515625</v>
+        <v>1998.8499755859375</v>
       </c>
       <c r="C128">
-        <v>875</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44274.386874999997</v>
+        <v>44293.386921296296</v>
       </c>
       <c r="B129">
-        <v>33660</v>
+        <v>1999</v>
       </c>
       <c r="C129">
-        <v>250</v>
+        <v>669</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44274.386886574073</v>
+        <v>44293.386921296296</v>
       </c>
       <c r="B130">
-        <v>33662.05078125</v>
+        <v>1998.8499755859375</v>
       </c>
       <c r="C130">
-        <v>2925</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>44274.38689814815</v>
+        <v>44293.386932870373</v>
       </c>
       <c r="B131">
-        <v>33648.80078125</v>
+        <v>1998.8499755859375</v>
       </c>
       <c r="C131">
-        <v>1225</v>
+        <v>662</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>44274.386921296296</v>
+        <v>44293.386944444443</v>
       </c>
       <c r="B132">
-        <v>33647.1015625</v>
+        <v>1998.8499755859375</v>
       </c>
       <c r="C132">
-        <v>575</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44274.386921296296</v>
+        <v>44293.386956018519</v>
       </c>
       <c r="B133">
-        <v>33645</v>
+        <v>1999.199951171875</v>
       </c>
       <c r="C133">
-        <v>300</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>44274.386932870373</v>
+        <v>44293.386979166666</v>
       </c>
       <c r="B134">
-        <v>33652.1015625</v>
+        <v>1999.199951171875</v>
       </c>
       <c r="C134">
-        <v>350</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>44274.386944444443</v>
+        <v>44293.386990740742</v>
       </c>
       <c r="B135">
-        <v>33649</v>
+        <v>1999.550048828125</v>
       </c>
       <c r="C135">
-        <v>250</v>
+        <v>736</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>44274.386956018519</v>
+        <v>44293.386990740742</v>
       </c>
       <c r="B136">
-        <v>33645</v>
+        <v>1999.3499755859375</v>
       </c>
       <c r="C136">
-        <v>1650</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>44274.386967592596</v>
+        <v>44293.387002314812</v>
       </c>
       <c r="B137">
-        <v>33640.05078125</v>
+        <v>1999.300048828125</v>
       </c>
       <c r="C137">
-        <v>1150</v>
+        <v>947</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>44274.386979166666</v>
+        <v>44293.387013888889</v>
       </c>
       <c r="B138">
-        <v>33644.3515625</v>
+        <v>2000</v>
       </c>
       <c r="C138">
-        <v>1550</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>44274.386990740742</v>
+        <v>44293.387037037035</v>
       </c>
       <c r="B139">
-        <v>33658.5</v>
+        <v>2000.800048828125</v>
       </c>
       <c r="C139">
-        <v>400</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>44274.387002314812</v>
+        <v>44293.387048611112</v>
       </c>
       <c r="B140">
-        <v>33652.3515625</v>
+        <v>2002</v>
       </c>
       <c r="C140">
-        <v>700</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>44274.387013888889</v>
+        <v>44293.387048611112</v>
       </c>
       <c r="B141">
-        <v>33661</v>
+        <v>2002.300048828125</v>
       </c>
       <c r="C141">
-        <v>1150</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>44274.387037037035</v>
+        <v>44293.387060185189</v>
       </c>
       <c r="B142">
-        <v>33654</v>
+        <v>2002</v>
       </c>
       <c r="C142">
-        <v>700</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>44274.387037037035</v>
+        <v>44293.387071759258</v>
       </c>
       <c r="B143">
-        <v>33655</v>
+        <v>2001.75</v>
       </c>
       <c r="C143">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>44274.387048611112</v>
+        <v>44293.387083333335</v>
       </c>
       <c r="B144">
-        <v>33662.5</v>
+        <v>2002.1500244140625</v>
       </c>
       <c r="C144">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>44274.387060185189</v>
+        <v>44293.387106481481</v>
       </c>
       <c r="B145">
-        <v>33653.3984375</v>
+        <v>2002</v>
       </c>
       <c r="C145">
-        <v>400</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44274.387071759258</v>
+        <v>44293.387118055558</v>
       </c>
       <c r="B146">
-        <v>33656.3515625</v>
+        <v>2002.1500244140625</v>
       </c>
       <c r="C146">
-        <v>525</v>
+        <v>803</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>44274.387083333335</v>
+        <v>44293.387118055558</v>
       </c>
       <c r="B147">
-        <v>33660</v>
+        <v>2002.449951171875</v>
       </c>
       <c r="C147">
-        <v>1125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>44274.387094907404</v>
+        <v>44293.387129629627</v>
       </c>
       <c r="B148">
-        <v>33658</v>
+        <v>2002.5</v>
       </c>
       <c r="C148">
-        <v>1050</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>44274.387106481481</v>
+        <v>44293.387141203704</v>
       </c>
       <c r="B149">
-        <v>33652</v>
+        <v>2002.25</v>
       </c>
       <c r="C149">
-        <v>875</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>44274.387118055558</v>
+        <v>44293.387152777781</v>
       </c>
       <c r="B150">
-        <v>33653.3984375</v>
+        <v>2002.550048828125</v>
       </c>
       <c r="C150">
-        <v>100</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>44274.387129629627</v>
+        <v>44293.387175925927</v>
       </c>
       <c r="B151">
-        <v>33649.25</v>
+        <v>2002.4000244140625</v>
       </c>
       <c r="C151">
-        <v>650</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>44274.387152777781</v>
+        <v>44293.387187499997</v>
       </c>
       <c r="B152">
-        <v>33650</v>
+        <v>2003</v>
       </c>
       <c r="C152">
-        <v>400</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>44274.387152777781</v>
+        <v>44293.387187499997</v>
       </c>
       <c r="B153">
-        <v>33643.5</v>
+        <v>2003</v>
       </c>
       <c r="C153">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>44274.387164351851</v>
+        <v>44293.387199074074</v>
       </c>
       <c r="B154">
-        <v>33645</v>
+        <v>2003.25</v>
       </c>
       <c r="C154">
-        <v>275</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>44274.387175925927</v>
+        <v>44293.38721064815</v>
       </c>
       <c r="B155">
-        <v>33643.25</v>
+        <v>2003.25</v>
       </c>
       <c r="C155">
-        <v>900</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>44274.387187499997</v>
+        <v>44293.38722222222</v>
       </c>
       <c r="B156">
-        <v>33635</v>
+        <v>2003.25</v>
       </c>
       <c r="C156">
-        <v>225</v>
+        <v>987</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>44274.387199074074</v>
+        <v>44293.387245370373</v>
       </c>
       <c r="B157">
-        <v>33635.30078125</v>
+        <v>2003.4000244140625</v>
       </c>
       <c r="C157">
-        <v>525</v>
+        <v>610</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>44274.38721064815</v>
+        <v>44293.387256944443</v>
       </c>
       <c r="B158">
-        <v>33631.69921875</v>
+        <v>2002.699951171875</v>
       </c>
       <c r="C158">
-        <v>1050</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>44274.38722222222</v>
+        <v>44293.38726851852</v>
       </c>
       <c r="B159">
-        <v>33640</v>
+        <v>2003.25</v>
       </c>
       <c r="C159">
-        <v>875</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>44274.387233796297</v>
+        <v>44293.38726851852</v>
       </c>
       <c r="B160">
-        <v>33640</v>
+        <v>2003.25</v>
       </c>
       <c r="C160">
-        <v>575</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>44274.387245370373</v>
+        <v>44293.387280092589</v>
       </c>
       <c r="B161">
-        <v>33649.8515625</v>
+        <v>2003.75</v>
       </c>
       <c r="C161">
-        <v>800</v>
+        <v>583</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44274.38726851852</v>
+        <v>44293.387291666666</v>
       </c>
       <c r="B162">
-        <v>33647.94921875</v>
+        <v>2003.25</v>
       </c>
       <c r="C162">
-        <v>700</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>44274.38726851852</v>
+        <v>44293.387314814812</v>
       </c>
       <c r="B163">
-        <v>33658.3984375</v>
+        <v>2003.4000244140625</v>
       </c>
       <c r="C163">
-        <v>1025</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>44274.387280092589</v>
+        <v>44293.387326388889</v>
       </c>
       <c r="B164">
-        <v>33660.55078125</v>
+        <v>2003.5</v>
       </c>
       <c r="C164">
-        <v>900</v>
+        <v>203</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>44274.387291666666</v>
+        <v>44293.387326388889</v>
       </c>
       <c r="B165">
-        <v>33664.8984375</v>
+        <v>2003.9000244140625</v>
       </c>
       <c r="C165">
-        <v>1075</v>
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>44274.387303240743</v>
+        <v>44293.387337962966</v>
       </c>
       <c r="B166">
-        <v>33692</v>
+        <v>2003.300048828125</v>
       </c>
       <c r="C166">
-        <v>850</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>44274.387314814812</v>
+        <v>44293.387349537035</v>
       </c>
       <c r="B167">
-        <v>33684</v>
+        <v>2003.6500244140625</v>
       </c>
       <c r="C167">
-        <v>2275</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>44274.387326388889</v>
+        <v>44293.387372685182</v>
       </c>
       <c r="B168">
-        <v>33676.3515625</v>
+        <v>2003.9000244140625</v>
       </c>
       <c r="C168">
-        <v>1150</v>
+        <v>384</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>44274.387337962966</v>
+        <v>44293.387384259258</v>
       </c>
       <c r="B169">
-        <v>33683.05078125</v>
+        <v>2003.75</v>
       </c>
       <c r="C169">
-        <v>700</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>44274.387349537035</v>
+        <v>44293.387395833335</v>
       </c>
       <c r="B170">
-        <v>33676.5</v>
+        <v>2003.449951171875</v>
       </c>
       <c r="C170">
-        <v>350</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>44274.387361111112</v>
+        <v>44293.387407407405</v>
       </c>
       <c r="B171">
-        <v>33674.05078125</v>
+        <v>2003.449951171875</v>
       </c>
       <c r="C171">
-        <v>550</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>44274.387372685182</v>
+        <v>44293.387418981481</v>
       </c>
       <c r="B172">
-        <v>33670.6015625</v>
+        <v>2003.9000244140625</v>
       </c>
       <c r="C172">
-        <v>225</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>44274.387384259258</v>
+        <v>44293.387442129628</v>
       </c>
       <c r="B173">
-        <v>33691</v>
+        <v>2003.449951171875</v>
       </c>
       <c r="C173">
-        <v>350</v>
+        <v>481</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>44274.387395833335</v>
+        <v>44293.387453703705</v>
       </c>
       <c r="B174">
-        <v>33693.5</v>
+        <v>2004</v>
       </c>
       <c r="C174">
-        <v>450</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>44274.387407407405</v>
+        <v>44293.387465277781</v>
       </c>
       <c r="B175">
-        <v>33682.3984375</v>
+        <v>2003.9000244140625</v>
       </c>
       <c r="C175">
-        <v>450</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>44274.387418981481</v>
+        <v>44293.387465277781</v>
       </c>
       <c r="B176">
-        <v>33680</v>
+        <v>2004</v>
       </c>
       <c r="C176">
-        <v>1025</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>44274.387430555558</v>
+        <v>44293.387476851851</v>
       </c>
       <c r="B177">
-        <v>33678.25</v>
+        <v>2003.1500244140625</v>
       </c>
       <c r="C177">
-        <v>1100</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>44274.387442129628</v>
+        <v>44293.387488425928</v>
       </c>
       <c r="B178">
-        <v>33677.05078125</v>
+        <v>2004.5</v>
       </c>
       <c r="C178">
-        <v>225</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>44274.387453703705</v>
+        <v>44293.387499999997</v>
       </c>
       <c r="B179">
-        <v>33677.19921875</v>
+        <v>2004.3499755859375</v>
       </c>
       <c r="C179">
-        <v>225</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>44274.387465277781</v>
+        <v>44293.387523148151</v>
       </c>
       <c r="B180">
-        <v>33680</v>
+        <v>2004.300048828125</v>
       </c>
       <c r="C180">
-        <v>450</v>
+        <v>123</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>44274.387476851851</v>
+        <v>44293.38753472222</v>
       </c>
       <c r="B181">
-        <v>33680</v>
+        <v>2004.9000244140625</v>
       </c>
       <c r="C181">
-        <v>550</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>44274.387488425928</v>
+        <v>44293.38753472222</v>
       </c>
       <c r="B182">
-        <v>33684.94921875</v>
+        <v>2004.9000244140625</v>
       </c>
       <c r="C182">
-        <v>1725</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>44274.387499999997</v>
+        <v>44293.387546296297</v>
       </c>
       <c r="B183">
-        <v>33689</v>
+        <v>2004.800048828125</v>
       </c>
       <c r="C183">
-        <v>600</v>
+        <v>614</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>44274.387511574074</v>
+        <v>44293.387557870374</v>
       </c>
       <c r="B184">
-        <v>33697.69921875</v>
+        <v>2004.9000244140625</v>
       </c>
       <c r="C184">
-        <v>825</v>
+        <v>909</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>44274.387523148151</v>
+        <v>44293.387569444443</v>
       </c>
       <c r="B185">
-        <v>33686.8984375</v>
+        <v>2007</v>
       </c>
       <c r="C185">
-        <v>2575</v>
+        <v>22506</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>44274.38753472222</v>
+        <v>44293.387592592589</v>
       </c>
       <c r="B186">
-        <v>33680</v>
+        <v>2007</v>
       </c>
       <c r="C186">
-        <v>300</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>44274.387546296297</v>
+        <v>44293.387604166666</v>
       </c>
       <c r="B187">
-        <v>33678</v>
+        <v>2006.800048828125</v>
       </c>
       <c r="C187">
-        <v>475</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>44274.387557870374</v>
+        <v>44293.387604166666</v>
       </c>
       <c r="B188">
-        <v>33675.80078125</v>
+        <v>2006.0999755859375</v>
       </c>
       <c r="C188">
-        <v>500</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>44274.387569444443</v>
+        <v>44293.387615740743</v>
       </c>
       <c r="B189">
-        <v>33676.69921875</v>
+        <v>2007</v>
       </c>
       <c r="C189">
-        <v>400</v>
+        <v>865</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>44274.38758101852</v>
+        <v>44293.387627314813</v>
       </c>
       <c r="B190">
-        <v>33677.94921875</v>
+        <v>2008</v>
       </c>
       <c r="C190">
-        <v>200</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>44274.387592592589</v>
+        <v>44293.387638888889</v>
       </c>
       <c r="B191">
-        <v>33672.94921875</v>
+        <v>2008</v>
       </c>
       <c r="C191">
-        <v>325</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>44274.387604166666</v>
+        <v>44293.387650462966</v>
       </c>
       <c r="B192">
-        <v>33670.05078125</v>
+        <v>2008</v>
       </c>
       <c r="C192">
-        <v>175</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>44274.387615740743</v>
+        <v>44293.387673611112</v>
       </c>
       <c r="B193">
-        <v>33669.8984375</v>
+        <v>2008</v>
       </c>
       <c r="C193">
-        <v>100</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>44274.387627314813</v>
+        <v>44293.387685185182</v>
       </c>
       <c r="B194">
-        <v>33673.69921875</v>
+        <v>2006.75</v>
       </c>
       <c r="C194">
-        <v>50</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>44274.387638888889</v>
+        <v>44293.387685185182</v>
       </c>
       <c r="B195">
-        <v>33675.75</v>
+        <v>2006.449951171875</v>
       </c>
       <c r="C195">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>44274.387650462966</v>
+        <v>44293.387696759259</v>
       </c>
       <c r="B196">
-        <v>33673</v>
+        <v>2006.8499755859375</v>
       </c>
       <c r="C196">
-        <v>125</v>
+        <v>784</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>44274.387662037036</v>
+        <v>44293.387708333335</v>
       </c>
       <c r="B197">
-        <v>33673.69921875</v>
+        <v>2007.300048828125</v>
       </c>
       <c r="C197">
-        <v>375</v>
+        <v>846</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>44274.387673611112</v>
+        <v>44293.387731481482</v>
       </c>
       <c r="B198">
-        <v>33672.25</v>
+        <v>2007.1500244140625</v>
       </c>
       <c r="C198">
-        <v>400</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>44274.387685185182</v>
+        <v>44293.387743055559</v>
       </c>
       <c r="B199">
-        <v>33671.05078125</v>
+        <v>2007.449951171875</v>
       </c>
       <c r="C199">
-        <v>350</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>44274.387696759259</v>
+        <v>44293.387743055559</v>
       </c>
       <c r="B200">
-        <v>33666.80078125</v>
+        <v>2007.449951171875</v>
       </c>
       <c r="C200">
-        <v>225</v>
+        <v>349</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>44274.387708333335</v>
+        <v>44293.387754629628</v>
       </c>
       <c r="B201">
-        <v>33663.55078125</v>
+        <v>2007.300048828125</v>
       </c>
       <c r="C201">
-        <v>100</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>44274.387719907405</v>
+        <v>44293.387766203705</v>
       </c>
       <c r="B202">
-        <v>33655.75</v>
+        <v>2006.449951171875</v>
       </c>
       <c r="C202">
-        <v>300</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>44274.387731481482</v>
+        <v>44293.387789351851</v>
       </c>
       <c r="B203">
-        <v>33651</v>
+        <v>2006.949951171875</v>
       </c>
       <c r="C203">
-        <v>100</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>44274.387743055559</v>
+        <v>44293.387800925928</v>
       </c>
       <c r="B204">
-        <v>33644.44921875</v>
+        <v>2006.449951171875</v>
       </c>
       <c r="C204">
-        <v>725</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>44274.387754629628</v>
+        <v>44293.387800925928</v>
       </c>
       <c r="B205">
-        <v>33654</v>
+        <v>2006.800048828125</v>
       </c>
       <c r="C205">
-        <v>250</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>44274.387766203705</v>
+        <v>44293.387812499997</v>
       </c>
       <c r="B206">
-        <v>33644</v>
+        <v>2007</v>
       </c>
       <c r="C206">
-        <v>850</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>44274.387777777774</v>
+        <v>44293.387824074074</v>
       </c>
       <c r="B207">
-        <v>33649.69921875</v>
+        <v>2006.1500244140625</v>
       </c>
       <c r="C207">
-        <v>600</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>44274.387789351851</v>
+        <v>44293.387835648151</v>
       </c>
       <c r="B208">
-        <v>33647.69921875</v>
+        <v>2006.5</v>
       </c>
       <c r="C208">
-        <v>725</v>
+        <v>895</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>44274.387800925928</v>
+        <v>44293.38784722222</v>
       </c>
       <c r="B209">
-        <v>33635.05078125</v>
+        <v>2007</v>
       </c>
       <c r="C209">
-        <v>225</v>
+        <v>334</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>44274.387812499997</v>
+        <v>44293.387858796297</v>
       </c>
       <c r="B210">
-        <v>33634.80078125</v>
+        <v>2007.800048828125</v>
       </c>
       <c r="C210">
-        <v>75</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>44274.387824074074</v>
+        <v>44293.387870370374</v>
       </c>
       <c r="B211">
-        <v>33646</v>
+        <v>2007.4000244140625</v>
       </c>
       <c r="C211">
-        <v>600</v>
+        <v>332</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>44274.387835648151</v>
+        <v>44293.38789351852</v>
       </c>
       <c r="B212">
-        <v>33648.94921875</v>
+        <v>2007.1500244140625</v>
       </c>
       <c r="C212">
-        <v>375</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>44274.38784722222</v>
+        <v>44293.38790509259</v>
       </c>
       <c r="B213">
-        <v>33642.8515625</v>
+        <v>2007.4000244140625</v>
       </c>
       <c r="C213">
-        <v>575</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>44274.387858796297</v>
+        <v>44293.387916666667</v>
       </c>
       <c r="B214">
-        <v>33636.05078125</v>
+        <v>2007.6500244140625</v>
       </c>
       <c r="C214">
-        <v>775</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>44274.387870370374</v>
+        <v>44293.387928240743</v>
       </c>
       <c r="B215">
-        <v>33640.44921875</v>
+        <v>2007.699951171875</v>
       </c>
       <c r="C215">
-        <v>200</v>
+        <v>542</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>44274.387881944444</v>
+        <v>44293.387939814813</v>
       </c>
       <c r="B216">
-        <v>33647.44921875</v>
+        <v>2007.3499755859375</v>
       </c>
       <c r="C216">
-        <v>550</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>44274.38789351852</v>
+        <v>44293.38795138889</v>
       </c>
       <c r="B217">
-        <v>33639.6484375</v>
+        <v>2007.4000244140625</v>
       </c>
       <c r="C217">
-        <v>975</v>
+        <v>620</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>44274.38790509259</v>
+        <v>44293.387974537036</v>
       </c>
       <c r="B218">
-        <v>33642.8984375</v>
+        <v>2007.6500244140625</v>
       </c>
       <c r="C218">
-        <v>475</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>44274.387916666667</v>
+        <v>44293.387986111113</v>
       </c>
       <c r="B219">
-        <v>33643.8515625</v>
+        <v>2007.3499755859375</v>
       </c>
       <c r="C219">
-        <v>500</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>44274.387928240743</v>
+        <v>44293.387986111113</v>
       </c>
       <c r="B220">
-        <v>33644</v>
+        <v>2007.1500244140625</v>
       </c>
       <c r="C220">
-        <v>500</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>44274.38795138889</v>
+        <v>44293.387997685182</v>
       </c>
       <c r="B221">
-        <v>33645</v>
+        <v>2006.800048828125</v>
       </c>
       <c r="C221">
-        <v>600</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>44274.38795138889</v>
+        <v>44293.388009259259</v>
       </c>
       <c r="B222">
-        <v>33648.94921875</v>
+        <v>2006.699951171875</v>
       </c>
       <c r="C222">
-        <v>550</v>
+        <v>446</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>44274.387962962966</v>
+        <v>44293.388020833336</v>
       </c>
       <c r="B223">
-        <v>33651.3515625</v>
+        <v>2006.75</v>
       </c>
       <c r="C223">
-        <v>350</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>44274.387974537036</v>
+        <v>44293.388032407405</v>
       </c>
       <c r="B224">
-        <v>33654.30078125</v>
+        <v>2006.1500244140625</v>
       </c>
       <c r="C224">
-        <v>325</v>
+        <v>773</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>44274.387986111113</v>
+        <v>44293.388043981482</v>
       </c>
       <c r="B225">
-        <v>33663.5</v>
+        <v>2006.449951171875</v>
       </c>
       <c r="C225">
-        <v>750</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>44274.387997685182</v>
+        <v>44293.388067129628</v>
       </c>
       <c r="B226">
-        <v>33660.44921875</v>
+        <v>2007.1500244140625</v>
       </c>
       <c r="C226">
-        <v>150</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>44274.388009259259</v>
+        <v>44293.388078703705</v>
       </c>
       <c r="B227">
-        <v>33660.55078125</v>
+        <v>2006.800048828125</v>
       </c>
       <c r="C227">
-        <v>850</v>
+        <v>406</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>44274.388020833336</v>
+        <v>44293.388078703705</v>
       </c>
       <c r="B228">
-        <v>33659.44921875</v>
+        <v>2006.6500244140625</v>
       </c>
       <c r="C228">
-        <v>175</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>44274.388032407405</v>
+        <v>44293.388090277775</v>
       </c>
       <c r="B229">
-        <v>33654.55078125</v>
+        <v>2007.25</v>
       </c>
       <c r="C229">
-        <v>100</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>44274.388055555559</v>
+        <v>44293.388101851851</v>
       </c>
       <c r="B230">
-        <v>33660.55078125</v>
+        <v>2006</v>
       </c>
       <c r="C230">
-        <v>1025</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>44274.388067129628</v>
+        <v>44293.388113425928</v>
       </c>
       <c r="B231">
-        <v>33661.19921875</v>
+        <v>2005.199951171875</v>
       </c>
       <c r="C231">
-        <v>500</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>44274.388078703705</v>
+        <v>44293.388124999998</v>
       </c>
       <c r="B232">
-        <v>33663</v>
+        <v>2006.5</v>
       </c>
       <c r="C232">
-        <v>775</v>
+        <v>795</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>44274.388090277775</v>
+        <v>44293.388136574074</v>
       </c>
       <c r="B233">
-        <v>33655.3515625</v>
+        <v>2006.5</v>
       </c>
       <c r="C233">
-        <v>100</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>44274.388101851851</v>
+        <v>44293.388159722221</v>
       </c>
       <c r="B234">
-        <v>33648.8515625</v>
+        <v>2006.5</v>
       </c>
       <c r="C234">
-        <v>225</v>
+        <v>896</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>44274.388113425928</v>
+        <v>44293.388171296298</v>
       </c>
       <c r="B235">
-        <v>33651.05078125</v>
+        <v>2005.9000244140625</v>
       </c>
       <c r="C235">
-        <v>400</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>44274.388124999998</v>
+        <v>44293.388171296298</v>
       </c>
       <c r="B236">
-        <v>33650.30078125</v>
+        <v>2006</v>
       </c>
       <c r="C236">
-        <v>325</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>44274.388136574074</v>
+        <v>44293.388182870367</v>
       </c>
       <c r="B237">
-        <v>33652.30078125</v>
+        <v>2005.5</v>
       </c>
       <c r="C237">
-        <v>100</v>
+        <v>795</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>44274.388148148151</v>
+        <v>44293.388194444444</v>
       </c>
       <c r="B238">
-        <v>33643.55078125</v>
+        <v>2006.699951171875</v>
       </c>
       <c r="C238">
-        <v>725</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>44274.388159722221</v>
+        <v>44293.38821759259</v>
       </c>
       <c r="B239">
-        <v>33644.94921875</v>
+        <v>2007</v>
       </c>
       <c r="C239">
-        <v>275</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>44274.388171296298</v>
+        <v>44293.388229166667</v>
       </c>
       <c r="B240">
-        <v>33646</v>
+        <v>2006.800048828125</v>
       </c>
       <c r="C240">
-        <v>175</v>
+        <v>997</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>44274.388182870367</v>
+        <v>44293.388229166667</v>
       </c>
       <c r="B241">
-        <v>33643.55078125</v>
+        <v>2007</v>
       </c>
       <c r="C241">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>44274.388194444444</v>
+        <v>44293.388240740744</v>
       </c>
       <c r="B242">
-        <v>33642.6484375</v>
+        <v>2006</v>
       </c>
       <c r="C242">
-        <v>200</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>44274.388206018521</v>
+        <v>44293.388252314813</v>
       </c>
       <c r="B243">
-        <v>33644.55078125</v>
+        <v>2005.5</v>
       </c>
       <c r="C243">
-        <v>50</v>
+        <v>916</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>44274.38821759259</v>
+        <v>44293.38826388889</v>
       </c>
       <c r="B244">
-        <v>33637.25</v>
+        <v>2006.1500244140625</v>
       </c>
       <c r="C244">
-        <v>350</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>44274.388229166667</v>
+        <v>44293.388287037036</v>
       </c>
       <c r="B245">
-        <v>33640.44921875</v>
+        <v>2005.5</v>
       </c>
       <c r="C245">
-        <v>400</v>
+        <v>570</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>44274.388240740744</v>
+        <v>44293.388298611113</v>
       </c>
       <c r="B246">
-        <v>33643.69921875</v>
+        <v>2005.5</v>
       </c>
       <c r="C246">
-        <v>225</v>
+        <v>413</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>44274.388252314813</v>
+        <v>44293.388298611113</v>
       </c>
       <c r="B247">
-        <v>33642</v>
+        <v>2005.5</v>
       </c>
       <c r="C247">
-        <v>225</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>44274.38826388889</v>
+        <v>44293.388310185182</v>
       </c>
       <c r="B248">
-        <v>33637.25</v>
+        <v>2005.5</v>
       </c>
       <c r="C248">
-        <v>25</v>
+        <v>704</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>44274.388275462959</v>
+        <v>44293.388321759259</v>
       </c>
       <c r="B249">
-        <v>33640</v>
+        <v>2005.800048828125</v>
       </c>
       <c r="C249">
-        <v>525</v>
+        <v>358</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>44274.388287037036</v>
+        <v>44293.388333333336</v>
       </c>
       <c r="B250">
-        <v>33638.6015625</v>
+        <v>2005</v>
       </c>
       <c r="C250">
-        <v>200</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>44274.388298611113</v>
+        <v>44293.388344907406</v>
       </c>
       <c r="B251">
-        <v>33631.25</v>
+        <v>2005.5999755859375</v>
       </c>
       <c r="C251">
-        <v>175</v>
+        <v>294</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>44274.388310185182</v>
+        <v>44293.388368055559</v>
       </c>
       <c r="B252">
-        <v>33638.5</v>
+        <v>2005.800048828125</v>
       </c>
       <c r="C252">
-        <v>225</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>44274.388321759259</v>
+        <v>44293.388379629629</v>
       </c>
       <c r="B253">
-        <v>33632</v>
+        <v>2006.800048828125</v>
       </c>
       <c r="C253">
-        <v>250</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>44274.388333333336</v>
+        <v>44293.388391203705</v>
       </c>
       <c r="B254">
-        <v>33635.55078125</v>
+        <v>2006.800048828125</v>
       </c>
       <c r="C254">
-        <v>400</v>
+        <v>491</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>44274.388344907406</v>
+        <v>44293.388391203705</v>
       </c>
       <c r="B255">
-        <v>33630.1015625</v>
+        <v>2006.5</v>
       </c>
       <c r="C255">
-        <v>550</v>
+        <v>122</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>44274.388356481482</v>
+        <v>44293.388402777775</v>
       </c>
       <c r="B256">
-        <v>33635.8515625</v>
+        <v>2005.8499755859375</v>
       </c>
       <c r="C256">
-        <v>250</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>44274.388368055559</v>
+        <v>44293.388414351852</v>
       </c>
       <c r="B257">
-        <v>33630.44921875</v>
+        <v>2005.800048828125</v>
       </c>
       <c r="C257">
-        <v>50</v>
+        <v>351</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>44274.388379629629</v>
+        <v>44293.388425925928</v>
       </c>
       <c r="B258">
-        <v>33630</v>
+        <v>2006.449951171875</v>
       </c>
       <c r="C258">
-        <v>675</v>
+        <v>605</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>44274.388391203705</v>
+        <v>44293.388449074075</v>
       </c>
       <c r="B259">
-        <v>33625</v>
+        <v>2006</v>
       </c>
       <c r="C259">
-        <v>300</v>
+        <v>398</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>44274.388402777775</v>
+        <v>44293.388460648152</v>
       </c>
       <c r="B260">
-        <v>33620</v>
+        <v>2006.800048828125</v>
       </c>
       <c r="C260">
-        <v>1875</v>
+        <v>578</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>44274.388414351852</v>
+        <v>44293.388460648152</v>
       </c>
       <c r="B261">
-        <v>33611</v>
+        <v>2006.75</v>
       </c>
       <c r="C261">
-        <v>300</v>
+        <v>535</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>44274.388425925928</v>
+        <v>44293.388483796298</v>
       </c>
       <c r="B262">
-        <v>33608</v>
+        <v>2006.699951171875</v>
       </c>
       <c r="C262">
-        <v>625</v>
+        <v>707</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>44274.388437499998</v>
+        <v>44293.388495370367</v>
       </c>
       <c r="B263">
-        <v>33601.75</v>
+        <v>2006.75</v>
       </c>
       <c r="C263">
-        <v>375</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>44274.388449074075</v>
+        <v>44293.388506944444</v>
       </c>
       <c r="B264">
-        <v>33600</v>
+        <v>2005.5999755859375</v>
       </c>
       <c r="C264">
-        <v>2400</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>44274.388460648152</v>
+        <v>44293.388506944444</v>
       </c>
       <c r="B265">
-        <v>33593</v>
+        <v>2005.6500244140625</v>
       </c>
       <c r="C265">
-        <v>1175</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>44274.388472222221</v>
+        <v>44293.388518518521</v>
       </c>
       <c r="B266">
-        <v>33588.05078125</v>
+        <v>2006.300048828125</v>
       </c>
       <c r="C266">
-        <v>225</v>
+        <v>493</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>44274.388483796298</v>
+        <v>44293.38853009259</v>
       </c>
       <c r="B267">
-        <v>33584.3984375</v>
+        <v>2006</v>
       </c>
       <c r="C267">
-        <v>675</v>
+        <v>372</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>44274.388495370367</v>
+        <v>44293.388541666667</v>
       </c>
       <c r="B268">
-        <v>33588.6015625</v>
+        <v>2006.6500244140625</v>
       </c>
       <c r="C268">
-        <v>275</v>
+        <v>790</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>44274.388506944444</v>
+        <v>44293.388564814813</v>
       </c>
       <c r="B269">
-        <v>33599.5</v>
+        <v>2006</v>
       </c>
       <c r="C269">
-        <v>1000</v>
+        <v>335</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>44274.388518518521</v>
+        <v>44293.38857638889</v>
       </c>
       <c r="B270">
-        <v>33603</v>
+        <v>2006.050048828125</v>
       </c>
       <c r="C270">
-        <v>475</v>
+        <v>873</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>44274.38853009259</v>
+        <v>44293.38858796296</v>
       </c>
       <c r="B271">
-        <v>33602.94921875</v>
+        <v>2006</v>
       </c>
       <c r="C271">
-        <v>325</v>
+        <v>134</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>44274.388541666667</v>
+        <v>44293.388599537036</v>
       </c>
       <c r="B272">
-        <v>33610.05078125</v>
+        <v>2006</v>
       </c>
       <c r="C272">
-        <v>550</v>
+        <v>185</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>44274.388553240744</v>
+        <v>44293.388611111113</v>
       </c>
       <c r="B273">
-        <v>33611</v>
+        <v>2006</v>
       </c>
       <c r="C273">
-        <v>200</v>
+        <v>111</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>44274.388564814813</v>
+        <v>44293.38863425926</v>
       </c>
       <c r="B274">
-        <v>33619.05078125</v>
+        <v>2005.5</v>
       </c>
       <c r="C274">
-        <v>625</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>44274.38857638889</v>
+        <v>44293.388645833336</v>
       </c>
       <c r="B275">
-        <v>33613.6484375</v>
+        <v>2005.5</v>
       </c>
       <c r="C275">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>44274.38858796296</v>
+        <v>44293.388657407406</v>
       </c>
       <c r="B276">
-        <v>33614.80078125</v>
+        <v>2006.1500244140625</v>
       </c>
       <c r="C276">
-        <v>200</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>44274.388599537036</v>
+        <v>44293.388668981483</v>
       </c>
       <c r="B277">
-        <v>33611.75</v>
+        <v>2005.25</v>
       </c>
       <c r="C277">
-        <v>500</v>
+        <v>479</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>44274.388611111113</v>
+        <v>44293.388668981483</v>
       </c>
       <c r="B278">
-        <v>33609.6484375</v>
+        <v>2005.1500244140625</v>
       </c>
       <c r="C278">
-        <v>200</v>
+        <v>101</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>44274.388622685183</v>
+        <v>44293.388680555552</v>
       </c>
       <c r="B279">
-        <v>33606.69921875</v>
+        <v>2005.5</v>
       </c>
       <c r="C279">
-        <v>175</v>
+        <v>105</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>44274.38863425926</v>
+        <v>44293.388692129629</v>
       </c>
       <c r="B280">
-        <v>33615.30078125</v>
+        <v>2005.75</v>
       </c>
       <c r="C280">
-        <v>500</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>44274.388645833336</v>
+        <v>44293.388715277775</v>
       </c>
       <c r="B281">
-        <v>33612.75</v>
+        <v>2005.75</v>
       </c>
       <c r="C281">
-        <v>875</v>
+        <v>828</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>44274.388657407406</v>
+        <v>44293.388726851852</v>
       </c>
       <c r="B282">
-        <v>33610.69921875</v>
+        <v>2005.75</v>
       </c>
       <c r="C282">
-        <v>700</v>
+        <v>473</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>44274.388668981483</v>
+        <v>44293.388738425929</v>
       </c>
       <c r="B283">
-        <v>33614.6015625</v>
+        <v>2005.800048828125</v>
       </c>
       <c r="C283">
-        <v>900</v>
+        <v>486</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>44274.388680555552</v>
+        <v>44293.388738425929</v>
       </c>
       <c r="B284">
-        <v>33611.1484375</v>
+        <v>2005.800048828125</v>
       </c>
       <c r="C284">
-        <v>200</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>44274.388692129629</v>
+        <v>44293.388749999998</v>
       </c>
       <c r="B285">
-        <v>33611.1484375</v>
+        <v>2005.75</v>
       </c>
       <c r="C285">
-        <v>175</v>
+        <v>699</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>44274.388703703706</v>
+        <v>44293.388761574075</v>
       </c>
       <c r="B286">
-        <v>33603.80078125</v>
+        <v>2005.8499755859375</v>
       </c>
       <c r="C286">
-        <v>1075</v>
+        <v>263</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>44274.388715277775</v>
+        <v>44293.388773148145</v>
       </c>
       <c r="B287">
-        <v>33598.5</v>
+        <v>2005.5</v>
       </c>
       <c r="C287">
-        <v>375</v>
+        <v>766</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>44274.388726851852</v>
+        <v>44293.388784722221</v>
       </c>
       <c r="B288">
-        <v>33603.55078125</v>
+        <v>2005.199951171875</v>
       </c>
       <c r="C288">
-        <v>475</v>
+        <v>171</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>44274.388738425929</v>
+        <v>44293.388807870368</v>
       </c>
       <c r="B289">
-        <v>33603.6015625</v>
+        <v>2005.5</v>
       </c>
       <c r="C289">
-        <v>50</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>44274.388749999998</v>
+        <v>44293.388819444444</v>
       </c>
       <c r="B290">
-        <v>33611.6015625</v>
+        <v>2005.5</v>
       </c>
       <c r="C290">
-        <v>225</v>
+        <v>346</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>44274.388761574075</v>
+        <v>44293.388831018521</v>
       </c>
       <c r="B291">
-        <v>33606.80078125</v>
+        <v>2005.050048828125</v>
       </c>
       <c r="C291">
-        <v>850</v>
+        <v>383</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>44274.388773148145</v>
+        <v>44293.388842592591</v>
       </c>
       <c r="B292">
-        <v>33612.30078125</v>
+        <v>2005</v>
       </c>
       <c r="C292">
-        <v>150</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>44274.388784722221</v>
+        <v>44293.388865740744</v>
       </c>
       <c r="B293">
-        <v>33605</v>
+        <v>2005</v>
       </c>
       <c r="C293">
-        <v>450</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>44274.388796296298</v>
+        <v>44293.388877314814</v>
       </c>
       <c r="B294">
-        <v>33605.80078125</v>
+        <v>2005.1500244140625</v>
       </c>
       <c r="C294">
-        <v>150</v>
+        <v>946</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>44274.388807870368</v>
+        <v>44293.388888888891</v>
       </c>
       <c r="B295">
-        <v>33601.8984375</v>
+        <v>2005.050048828125</v>
       </c>
       <c r="C295">
-        <v>175</v>
+        <v>380</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>44274.388819444444</v>
+        <v>44293.388888888891</v>
       </c>
       <c r="B296">
-        <v>33600.25</v>
+        <v>2005.1500244140625</v>
       </c>
       <c r="C296">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
-        <v>44274.388831018521</v>
-      </c>
-      <c r="B297">
-        <v>33596.8984375</v>
-      </c>
-      <c r="C297">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>44274.388842592591</v>
-      </c>
-      <c r="B298">
-        <v>33596.8984375</v>
-      </c>
-      <c r="C298">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>44274.388854166667</v>
-      </c>
-      <c r="B299">
-        <v>33596.8984375</v>
-      </c>
-      <c r="C299">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
-        <v>44274.388865740744</v>
-      </c>
-      <c r="B300">
-        <v>33596.8984375</v>
-      </c>
-      <c r="C300">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>44274.388877314814</v>
-      </c>
-      <c r="B301">
-        <v>33599</v>
-      </c>
-      <c r="C301">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
-        <v>44274.388888888891</v>
-      </c>
-      <c r="B302">
-        <v>33601.80078125</v>
-      </c>
-      <c r="C302">
-        <v>575</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
